--- a/최종산출물/2. WBS/y2k4 요구사항 명세서(초안).xlsx
+++ b/최종산출물/2. WBS/y2k4 요구사항 명세서(초안).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bootcamp\java\y2k4\최종산출물\2. WBS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24443580-BF5B-4948-B218-2D03707AFC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -64,349 +73,363 @@
     <t>해당 사용자가 어느 회사에 재직중인지 확인, 해당 회사의 데이터가 이미 있으면 이를 제공</t>
   </si>
   <si>
+    <t>매출</t>
+  </si>
+  <si>
+    <t>각 칼럼별로 정렬/검색</t>
+  </si>
+  <si>
+    <t>각 칼럼을 기준으로 정렬 및 검색기능 제공</t>
+  </si>
+  <si>
+    <t>부가세 자동 계산</t>
+  </si>
+  <si>
+    <t>매출 품의서의 공급가액 입력 시, 품목별 과세 정보를 바탕으로 부가가치세를 자동으로 계산</t>
+  </si>
+  <si>
+    <t>거래처 정보 확인</t>
+  </si>
+  <si>
+    <t>가상의 ERP/회계 시스템과 연동하여 해당 거래처의 미수금 잔액, 과거 결제 이력, 신용도를 조회</t>
+  </si>
+  <si>
+    <t>완료 시 매출 자동 집계</t>
+  </si>
+  <si>
+    <t>매출 관련 결재가 최종 완료되면, 해당 금액을 기간별 수주액/매출액으로 자동 집계</t>
+  </si>
+  <si>
+    <t>마진율 자동 계산 및 통제</t>
+  </si>
+  <si>
+    <t>판매가와 원가 데이터를 비교하여 마진율을 계산</t>
+  </si>
+  <si>
+    <t>납기일 지정 및 추적</t>
+  </si>
+  <si>
+    <t>주문 또는 계약 시 약속된 납기일을 관리하고, 해당 일자 임박 및 지연될 경우 담당장에게 알림</t>
+  </si>
+  <si>
+    <t>지출</t>
+  </si>
+  <si>
+    <t>실시간 예산 잔액</t>
+  </si>
+  <si>
+    <t>지출 결의서 작성 시 선택한 예산 계정의 잔액을 조회</t>
+  </si>
+  <si>
+    <t>법인카드 사용 내역 자동 연동</t>
+  </si>
+  <si>
+    <t>법인카드 시스템에서 사용 내역을 자동으로 수신하여, 결의서 작성 시 영수증 첨부 및 금액 입력을 처리를 지원</t>
+  </si>
+  <si>
+    <t>계정 과목별 필수 필드 강제</t>
+  </si>
+  <si>
+    <t>접대비, 복리후생비 등 특정 계정 과목 선택 시, 법인세법 등을 고려한 필수 정보(참석자 명단, 접대 목적) 입력을 강제</t>
+  </si>
+  <si>
+    <t>출장비/경비 정산 자동화</t>
+  </si>
+  <si>
+    <t>출장/경비 신청 및 승인 내역을 기반으로 정산 시 허용 범위, 일비/숙박비 기준 등을 자동으로 적용하여 정산 금액을 계산</t>
+  </si>
+  <si>
+    <t>판매/구메</t>
+  </si>
+  <si>
+    <t>판매 주문</t>
+  </si>
+  <si>
+    <t>재고 자동 감소</t>
+  </si>
+  <si>
+    <t>판매 주문에 기록시 재고에 있는 주문 물품의 수량을 자동감소</t>
+  </si>
+  <si>
+    <t>담당자 세부 정보 확인</t>
+  </si>
+  <si>
+    <t>해당 판매 주문 담당자 클릭시 해당 담당자 정보 제공(팝업창)</t>
+  </si>
+  <si>
+    <t>주문 상세내용 보기</t>
+  </si>
+  <si>
+    <t>주문번호 클릭시 해당 주문의 상세 정보 제공(팝업창)</t>
+  </si>
+  <si>
+    <t>왼료시 매출 자동 증가</t>
+  </si>
+  <si>
+    <t>주문의 상태가 '완료'로 변한다면 해당 주문 금액만큼 매출에 자동 기록</t>
+  </si>
+  <si>
+    <t>거래처명 클릭시 거레처 상세정보 제공(팝업창)</t>
+  </si>
+  <si>
+    <t>판매 주문 상세</t>
+  </si>
+  <si>
+    <t>판매 상품 상세 보기</t>
+  </si>
+  <si>
+    <t>판매상품 이름 클릭시 해당 제품 생세 정보 제공(팝업창)</t>
+  </si>
+  <si>
+    <t>구매 발주</t>
+  </si>
+  <si>
+    <t>도착시 재고 수량 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발주한 물품 도착시 상태를 확인, 실제 수량만큼 재고 증가 </t>
+  </si>
+  <si>
+    <t>발주시 지출액 자동 증가</t>
+  </si>
+  <si>
+    <t>빌주시 발주 액수 자동으로 지출에 기록</t>
+  </si>
+  <si>
+    <t>구매 발주 상세</t>
+  </si>
+  <si>
+    <t>상태 전환시 실제 수량 확인</t>
+  </si>
+  <si>
+    <t>구매 상태를 '도착'으로 변경할 시, 실 수령 개수 확인을 강제함</t>
+  </si>
+  <si>
+    <t>생산/제조</t>
+  </si>
+  <si>
+    <t>작업지시서</t>
+  </si>
+  <si>
+    <t>생산 효율</t>
+  </si>
+  <si>
+    <t>제품의 수량(목표/양품/불량)과 연계하여 생산 효율 측정</t>
+  </si>
+  <si>
+    <t>공정 단계 확인</t>
+  </si>
+  <si>
+    <t>각 제품이 공정의 어떤 단계에 있는지 확인하는 기능 제공</t>
+  </si>
+  <si>
+    <t>불량 유형 체크</t>
+  </si>
+  <si>
+    <t>생산 효율 기능과 연계하여 제조 과정에서의 불량 유형 통계화</t>
+  </si>
+  <si>
+    <t>설비 상태</t>
+  </si>
+  <si>
+    <t>제조 공정에 사용되는 설비의 상태 확인 기능 제공</t>
+  </si>
+  <si>
+    <t>자재 명세서</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>필요 자재 목록, 재고와 연동해서 표기</t>
+  </si>
+  <si>
+    <t>Lot 번호 추적</t>
+  </si>
+  <si>
+    <t xml:space="preserve">원자재의 Lot 번호 기록, 완제품의 Lot 번호와 연결해서 관리 </t>
+  </si>
+  <si>
+    <t>대체 자재 확인 시스템</t>
+  </si>
+  <si>
+    <t>BOM, 재고와 연동하여 필요 자재가 없을시 사용 가능한 대체 자재 확인 기능 제공</t>
+  </si>
+  <si>
+    <t>재고</t>
+  </si>
+  <si>
+    <t>물품목록</t>
+  </si>
+  <si>
+    <t>입고, 출고에 따른 수량 계산</t>
+  </si>
+  <si>
+    <t>입고 등록에 기재된 수량만큼 증가/출고 등록에 기재된 수량만큼 감소</t>
+  </si>
+  <si>
+    <t>물품 등록 / 삭제</t>
+  </si>
+  <si>
+    <t>권한을 가진 관리자가 새로운 물품(튜플)을 등록하거나 삭제 + 물품 유형 컬럼에 새로운 데이터를 추가</t>
+  </si>
+  <si>
+    <t>물품 상태 관리</t>
+  </si>
+  <si>
+    <t>물품의 입출고 가능, 품절/단종, 불량 등의 상태를 조회</t>
+  </si>
+  <si>
+    <t>입고</t>
+  </si>
+  <si>
+    <t>입고 등록</t>
+  </si>
+  <si>
+    <t>입고 등록에 적힌 물품ID 또는 물품 유형에 등록된 물품의 수량을 증가</t>
+  </si>
+  <si>
+    <t>입고 취소</t>
+  </si>
+  <si>
+    <t>잘못 등록된 입고 내역을 취소하거나 수정하여 물품의 수량을 정정함</t>
+  </si>
+  <si>
+    <t>출고</t>
+  </si>
+  <si>
+    <t>출고 등록</t>
+  </si>
+  <si>
+    <t>생산/제조를 위한 출고 등록에 따라 물품의 수량을 감소</t>
+  </si>
+  <si>
+    <t>출고 취소</t>
+  </si>
+  <si>
+    <t>잘못 등록된 출고 내역을 취소하거나 수정하여 물품의 수량을 정정함</t>
+  </si>
+  <si>
+    <t>인사</t>
+  </si>
+  <si>
+    <t>인사 관리</t>
+  </si>
+  <si>
+    <t>각 칼럼별 정렬/검색</t>
+  </si>
+  <si>
+    <t>부서별 인원 관리</t>
+  </si>
+  <si>
+    <t>회사의 부서 구조를 생성하고 관리</t>
+  </si>
+  <si>
+    <t>직급에 따른 권한 부여</t>
+  </si>
+  <si>
+    <t>관리자가 신청인의 결재문서 승인(휴가, 조퇴, 부서 이동, 각 문서마다 팝업창 )</t>
+  </si>
+  <si>
+    <t>인사 발령 관리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인사 이동 결재 신청, 퇴직자 관리 </t>
+  </si>
+  <si>
+    <t>급여</t>
+  </si>
+  <si>
+    <t>급여 자동계산</t>
+  </si>
+  <si>
+    <t>확정된 월별 근태 기록을 연결해 각종 수당 계산을 자동으로 반영</t>
+  </si>
+  <si>
+    <t>급여 명세서 조회</t>
+  </si>
+  <si>
+    <t>자동계산 된 상세내역을 확인(팝업창)</t>
+  </si>
+  <si>
+    <t>세금 공제</t>
+  </si>
+  <si>
+    <t>급여 계산 시, 4대 보험료와 소득세를 자동으로 계산하여 공제 항목에 반영</t>
+  </si>
+  <si>
+    <t>근태</t>
+  </si>
+  <si>
+    <t>각 칼럼을 기준으로 정렬 및 검색기능 제공(월별 근태 현황 조회)</t>
+  </si>
+  <si>
+    <t>출/퇴근 기록 관리</t>
+  </si>
+  <si>
+    <t>사일별 출근 및 퇴근 시간을 기록하여 근무 상태(정상, 지각 등)를 관리</t>
+  </si>
+  <si>
+    <t>휴가/연차 신청 및 전자 결재</t>
+  </si>
+  <si>
+    <t>연차, 병가 등 각종 휴가를 시스템을 통해 신청하고, 관리자가 이를 승인하거나 반려</t>
+  </si>
+  <si>
     <t xml:space="preserve">재무/회계
-(육현수)
 </t>
-  </si>
-  <si>
-    <t>매출</t>
-  </si>
-  <si>
-    <t>각 칼럼별로 정렬/검색</t>
-  </si>
-  <si>
-    <t>각 칼럼을 기준으로 정렬 및 검색기능 제공</t>
-  </si>
-  <si>
-    <t>부가세 자동 계산</t>
-  </si>
-  <si>
-    <t>매출 품의서의 공급가액 입력 시, 품목별 과세 정보를 바탕으로 부가가치세를 자동으로 계산</t>
-  </si>
-  <si>
-    <t>거래처 정보 확인</t>
-  </si>
-  <si>
-    <t>가상의 ERP/회계 시스템과 연동하여 해당 거래처의 미수금 잔액, 과거 결제 이력, 신용도를 조회</t>
-  </si>
-  <si>
-    <t>완료 시 매출 자동 집계</t>
-  </si>
-  <si>
-    <t>매출 관련 결재가 최종 완료되면, 해당 금액을 기간별 수주액/매출액으로 자동 집계</t>
-  </si>
-  <si>
-    <t>마진율 자동 계산 및 통제</t>
-  </si>
-  <si>
-    <t>판매가와 원가 데이터를 비교하여 마진율을 계산</t>
-  </si>
-  <si>
-    <t>납기일 지정 및 추적</t>
-  </si>
-  <si>
-    <t>주문 또는 계약 시 약속된 납기일을 관리하고, 해당 일자 임박 및 지연될 경우 담당장에게 알림</t>
-  </si>
-  <si>
-    <t>지출</t>
-  </si>
-  <si>
-    <t>실시간 예산 잔액</t>
-  </si>
-  <si>
-    <t>지출 결의서 작성 시 선택한 예산 계정의 잔액을 조회</t>
-  </si>
-  <si>
-    <t>법인카드 사용 내역 자동 연동</t>
-  </si>
-  <si>
-    <t>법인카드 시스템에서 사용 내역을 자동으로 수신하여, 결의서 작성 시 영수증 첨부 및 금액 입력을 처리를 지원</t>
-  </si>
-  <si>
-    <t>계정 과목별 필수 필드 강제</t>
-  </si>
-  <si>
-    <t>접대비, 복리후생비 등 특정 계정 과목 선택 시, 법인세법 등을 고려한 필수 정보(참석자 명단, 접대 목적) 입력을 강제</t>
-  </si>
-  <si>
-    <t>출장비/경비 정산 자동화</t>
-  </si>
-  <si>
-    <t>출장/경비 신청 및 승인 내역을 기반으로 정산 시 허용 범위, 일비/숙박비 기준 등을 자동으로 적용하여 정산 금액을 계산</t>
-  </si>
-  <si>
-    <t>판매/구메</t>
-  </si>
-  <si>
-    <t>판매 주문</t>
-  </si>
-  <si>
-    <t>재고 자동 감소</t>
-  </si>
-  <si>
-    <t>판매 주문에 기록시 재고에 있는 주문 물품의 수량을 자동감소</t>
-  </si>
-  <si>
-    <t>담당자 세부 정보 확인</t>
-  </si>
-  <si>
-    <t>해당 판매 주문 담당자 클릭시 해당 담당자 정보 제공(팝업창)</t>
-  </si>
-  <si>
-    <t>주문 상세내용 보기</t>
-  </si>
-  <si>
-    <t>주문번호 클릭시 해당 주문의 상세 정보 제공(팝업창)</t>
-  </si>
-  <si>
-    <t>왼료시 매출 자동 증가</t>
-  </si>
-  <si>
-    <t>주문의 상태가 '완료'로 변한다면 해당 주문 금액만큼 매출에 자동 기록</t>
-  </si>
-  <si>
-    <t>거래처명 클릭시 거레처 상세정보 제공(팝업창)</t>
-  </si>
-  <si>
-    <t>판매 주문 상세</t>
-  </si>
-  <si>
-    <t>판매 상품 상세 보기</t>
-  </si>
-  <si>
-    <t>판매상품 이름 클릭시 해당 제품 생세 정보 제공(팝업창)</t>
-  </si>
-  <si>
-    <t>구매 발주</t>
-  </si>
-  <si>
-    <t>도착시 재고 수량 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">발주한 물품 도착시 상태를 확인, 실제 수량만큼 재고 증가 </t>
-  </si>
-  <si>
-    <t>발주시 지출액 자동 증가</t>
-  </si>
-  <si>
-    <t>빌주시 발주 액수 자동으로 지출에 기록</t>
-  </si>
-  <si>
-    <t>구매 발주 상세</t>
-  </si>
-  <si>
-    <t>상태 전환시 실제 수량 확인</t>
-  </si>
-  <si>
-    <t>구매 상태를 '도착'으로 변경할 시, 실 수령 개수 확인을 강제함</t>
-  </si>
-  <si>
-    <t>생산/제조</t>
-  </si>
-  <si>
-    <t>작업지시서</t>
-  </si>
-  <si>
-    <t>생산 효율</t>
-  </si>
-  <si>
-    <t>제품의 수량(목표/양품/불량)과 연계하여 생산 효율 측정</t>
-  </si>
-  <si>
-    <t>공정 단계 확인</t>
-  </si>
-  <si>
-    <t>각 제품이 공정의 어떤 단계에 있는지 확인하는 기능 제공</t>
-  </si>
-  <si>
-    <t>불량 유형 체크</t>
-  </si>
-  <si>
-    <t>생산 효율 기능과 연계하여 제조 과정에서의 불량 유형 통계화</t>
-  </si>
-  <si>
-    <t>설비 상태</t>
-  </si>
-  <si>
-    <t>제조 공정에 사용되는 설비의 상태 확인 기능 제공</t>
-  </si>
-  <si>
-    <t>자재 명세서</t>
-  </si>
-  <si>
-    <t>BOM</t>
-  </si>
-  <si>
-    <t>필요 자재 목록, 재고와 연동해서 표기</t>
-  </si>
-  <si>
-    <t>Lot 번호 추적</t>
-  </si>
-  <si>
-    <t xml:space="preserve">원자재의 Lot 번호 기록, 완제품의 Lot 번호와 연결해서 관리 </t>
-  </si>
-  <si>
-    <t>대체 자재 확인 시스템</t>
-  </si>
-  <si>
-    <t>BOM, 재고와 연동하여 필요 자재가 없을시 사용 가능한 대체 자재 확인 기능 제공</t>
-  </si>
-  <si>
-    <t>재고</t>
-  </si>
-  <si>
-    <t>물품목록</t>
-  </si>
-  <si>
-    <t>입고, 출고에 따른 수량 계산</t>
-  </si>
-  <si>
-    <t>입고 등록에 기재된 수량만큼 증가/출고 등록에 기재된 수량만큼 감소</t>
-  </si>
-  <si>
-    <t>물품 등록 / 삭제</t>
-  </si>
-  <si>
-    <t>권한을 가진 관리자가 새로운 물품(튜플)을 등록하거나 삭제 + 물품 유형 컬럼에 새로운 데이터를 추가</t>
-  </si>
-  <si>
-    <t>물품 상태 관리</t>
-  </si>
-  <si>
-    <t>물품의 입출고 가능, 품절/단종, 불량 등의 상태를 조회</t>
-  </si>
-  <si>
-    <t>입고</t>
-  </si>
-  <si>
-    <t>입고 등록</t>
-  </si>
-  <si>
-    <t>입고 등록에 적힌 물품ID 또는 물품 유형에 등록된 물품의 수량을 증가</t>
-  </si>
-  <si>
-    <t>입고 취소</t>
-  </si>
-  <si>
-    <t>잘못 등록된 입고 내역을 취소하거나 수정하여 물품의 수량을 정정함</t>
-  </si>
-  <si>
-    <t>출고</t>
-  </si>
-  <si>
-    <t>출고 등록</t>
-  </si>
-  <si>
-    <t>생산/제조를 위한 출고 등록에 따라 물품의 수량을 감소</t>
-  </si>
-  <si>
-    <t>출고 취소</t>
-  </si>
-  <si>
-    <t>잘못 등록된 출고 내역을 취소하거나 수정하여 물품의 수량을 정정함</t>
-  </si>
-  <si>
-    <t>인사</t>
-  </si>
-  <si>
-    <t>인사 관리</t>
-  </si>
-  <si>
-    <t>각 칼럼별 정렬/검색</t>
-  </si>
-  <si>
-    <t>부서별 인원 관리</t>
-  </si>
-  <si>
-    <t>회사의 부서 구조를 생성하고 관리</t>
-  </si>
-  <si>
-    <t>직급에 따른 권한 부여</t>
-  </si>
-  <si>
-    <t>관리자가 신청인의 결재문서 승인(휴가, 조퇴, 부서 이동, 각 문서마다 팝업창 )</t>
-  </si>
-  <si>
-    <t>인사 발령 관리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인사 이동 결재 신청, 퇴직자 관리 </t>
-  </si>
-  <si>
-    <t>급여</t>
-  </si>
-  <si>
-    <t>급여 자동계산</t>
-  </si>
-  <si>
-    <t>확정된 월별 근태 기록을 연결해 각종 수당 계산을 자동으로 반영</t>
-  </si>
-  <si>
-    <t>급여 명세서 조회</t>
-  </si>
-  <si>
-    <t>자동계산 된 상세내역을 확인(팝업창)</t>
-  </si>
-  <si>
-    <t>세금 공제</t>
-  </si>
-  <si>
-    <t>급여 계산 시, 4대 보험료와 소득세를 자동으로 계산하여 공제 항목에 반영</t>
-  </si>
-  <si>
-    <t>근태</t>
-  </si>
-  <si>
-    <t>각 칼럼을 기준으로 정렬 및 검색기능 제공(월별 근태 현황 조회)</t>
-  </si>
-  <si>
-    <t>출/퇴근 기록 관리</t>
-  </si>
-  <si>
-    <t>사일별 출근 및 퇴근 시간을 기록하여 근무 상태(정상, 지각 등)를 관리</t>
-  </si>
-  <si>
-    <t>휴가/연차 신청 및 전자 결재</t>
-  </si>
-  <si>
-    <t>연차, 병가 등 각종 휴가를 시스템을 통해 신청하고, 관리자가 이를 승인하거나 반려</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -414,7 +437,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -424,7 +447,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -438,6 +467,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -449,6 +479,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -457,6 +489,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -465,65 +500,69 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -713,27 +752,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.75"/>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="3" width="22.38"/>
-    <col customWidth="1" min="4" max="4" width="92.25"/>
-    <col customWidth="1" min="5" max="26" width="7.63"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="4" max="4" width="107.7265625" customWidth="1"/>
+    <col min="5" max="26" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,710 +788,710 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D31" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D35" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D39" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A46" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D47" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D51" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="55" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D55" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A62" s="8"/>
+      <c r="B62" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="2" t="s">
+      <c r="D62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="6" t="s">
+      <c r="D63" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="6" t="s">
+    </row>
+    <row r="64" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="6" t="s">
+      <c r="D64" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="6" t="s">
+    </row>
+    <row r="65" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="6" t="s">
+      <c r="D65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="6" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="4"/>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="6" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="6" t="s">
+      <c r="D68" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="6" t="s">
+    </row>
+    <row r="69" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="6" t="s">
+      <c r="D69" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="72" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="73" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="74" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="75" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="76" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="77" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="78" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="79" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="80" spans="1:4" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -2367,6 +2408,20 @@
     <row r="994" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="A58:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A21:A37"/>
     <mergeCell ref="B54:B57"/>
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="A38:A45"/>
@@ -2375,24 +2430,9 @@
     <mergeCell ref="A46:A57"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="A58:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A21:A37"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>